--- a/demo_data_3.xlsx
+++ b/demo_data_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles.Shaw\Desktop\PyRobyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BD6E5-FD39-43FF-BC0A-7DF9600737B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525D89F9-CDA8-413B-BED2-B56BE699A379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -561,7 +561,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,7 +920,7 @@
   <dimension ref="A1:W185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6578,8 +6578,8 @@
       <c r="F80" s="1">
         <v>43.52</v>
       </c>
-      <c r="G80" s="1" t="e">
-        <v>#VALUE!</v>
+      <c r="G80" s="1">
+        <v>13211</v>
       </c>
       <c r="H80" s="1">
         <v>49146.95</v>
@@ -6650,7 +6650,7 @@
         <v>39.4</v>
       </c>
       <c r="G81" s="1">
-        <v>13617</v>
+        <v>13211</v>
       </c>
       <c r="H81" s="1">
         <v>75127.41</v>
